--- a/backend/analysis/annotations/test_files/sample_5_SAF_with_comments.xlsx
+++ b/backend/analysis/annotations/test_files/sample_5_SAF_with_comments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a3248526/git/sasta/backend/analysis/annotations/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B085AE1-F484-584F-B80F-167549D754C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C5FB5-2924-4545-A757-2228233AD66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -139,57 +139,60 @@
     <t>kan</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>een</t>
+  </si>
+  <si>
+    <t>dingetje</t>
+  </si>
+  <si>
+    <t>draan</t>
+  </si>
+  <si>
+    <t>Nabep</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Verkl</t>
+  </si>
+  <si>
+    <t>II,III,IV</t>
+  </si>
+  <si>
+    <t>V.U. Nee/ja</t>
+  </si>
+  <si>
+    <t>Inv,OndWB,W</t>
+  </si>
+  <si>
+    <t>I,III,III</t>
+  </si>
+  <si>
+    <t>deed</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>Verl Tijd</t>
+  </si>
+  <si>
+    <t>III,VI</t>
+  </si>
+  <si>
+    <t>Inv,OndW,W</t>
+  </si>
+  <si>
+    <t>I,II,III</t>
+  </si>
+  <si>
     <t>nog</t>
   </si>
   <si>
-    <t>een</t>
-  </si>
-  <si>
-    <t>dingetje</t>
-  </si>
-  <si>
-    <t>deraan</t>
-  </si>
-  <si>
-    <t>Nabep</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>Verkl</t>
-  </si>
-  <si>
-    <t>II,III,IV</t>
-  </si>
-  <si>
-    <t>V.U. Nee/ja</t>
-  </si>
-  <si>
-    <t>BBX,W,WBVC</t>
-  </si>
-  <si>
-    <t>I,I,III,III</t>
-  </si>
-  <si>
-    <t>deed</t>
-  </si>
-  <si>
-    <t>ik</t>
-  </si>
-  <si>
-    <t>Verl Tijd</t>
-  </si>
-  <si>
-    <t>III,VI</t>
-  </si>
-  <si>
-    <t>Inv,OndW,W</t>
-  </si>
-  <si>
-    <t>I,II,III</t>
-  </si>
-  <si>
     <t>ergens</t>
   </si>
   <si>
@@ -211,7 +214,7 @@
     <t>hij</t>
   </si>
   <si>
-    <t>komt</t>
+    <t>kom</t>
   </si>
   <si>
     <t>III,III</t>
@@ -226,319 +229,322 @@
     <t>wat</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Vr(XY)</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Kop,W</t>
+  </si>
+  <si>
+    <t>fiet</t>
+  </si>
+  <si>
+    <t>niet</t>
+  </si>
+  <si>
+    <t>meer</t>
+  </si>
+  <si>
+    <t>BBv/B</t>
+  </si>
+  <si>
+    <t>Stam+t</t>
+  </si>
+  <si>
+    <t>III,IV</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>effjes</t>
+  </si>
+  <si>
+    <t>erop</t>
+  </si>
+  <si>
+    <t>zetten</t>
+  </si>
+  <si>
+    <t>Hww i</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>jij</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>maken</t>
+  </si>
+  <si>
+    <t>Inv,VCWOndBB</t>
+  </si>
+  <si>
+    <t>I,III,V</t>
+  </si>
+  <si>
+    <t>daar</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>Vo/bij</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>OndWBB</t>
+  </si>
+  <si>
+    <t>I,IV</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>daarheen</t>
+  </si>
+  <si>
+    <t>chuiven</t>
+  </si>
+  <si>
+    <t>ander</t>
+  </si>
+  <si>
+    <t>kaat</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>tiern</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>'t</t>
+  </si>
+  <si>
+    <t>hek</t>
+  </si>
+  <si>
+    <t>lopen</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>VzBepZn</t>
+  </si>
+  <si>
+    <t>hetZn</t>
+  </si>
+  <si>
+    <t>III,IV,IV,V</t>
+  </si>
+  <si>
+    <t>MvTT</t>
+  </si>
+  <si>
+    <t>MvZn</t>
+  </si>
+  <si>
+    <t>II,IV</t>
+  </si>
+  <si>
+    <t>Inv,OndWBB</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>aan</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>IV,VI</t>
+  </si>
+  <si>
+    <t>BBX,W</t>
+  </si>
+  <si>
+    <t>paar</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>deze</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>nerke</t>
+  </si>
+  <si>
+    <t>WVz</t>
+  </si>
+  <si>
+    <t>V,VI</t>
+  </si>
+  <si>
+    <t>OndWBVC</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>effje</t>
+  </si>
+  <si>
+    <t>kant</t>
+  </si>
+  <si>
+    <t>die/dezeZn</t>
+  </si>
+  <si>
+    <t>IV,IV,IV</t>
+  </si>
+  <si>
+    <t>wij</t>
+  </si>
+  <si>
+    <t>II,V</t>
+  </si>
+  <si>
+    <t>Ov5</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>kij</t>
+  </si>
+  <si>
+    <t>hier</t>
+  </si>
+  <si>
+    <t>hebben</t>
+  </si>
+  <si>
+    <t>heel</t>
+  </si>
+  <si>
+    <t>veel</t>
+  </si>
+  <si>
+    <t>IV,V</t>
+  </si>
+  <si>
+    <t>V.U. Divers</t>
+  </si>
+  <si>
+    <t>I,I</t>
+  </si>
+  <si>
+    <t>Inv,OndWBVC</t>
+  </si>
+  <si>
+    <t>fftje</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>klik</t>
+  </si>
+  <si>
+    <t>wel</t>
+  </si>
+  <si>
+    <t>maar</t>
+  </si>
+  <si>
+    <t>I,III,VI,VI</t>
+  </si>
+  <si>
+    <t>alweer</t>
+  </si>
+  <si>
+    <t>Vr5+</t>
+  </si>
+  <si>
+    <t>trarpje</t>
+  </si>
+  <si>
+    <t>V.U. Nee/ja,Zn</t>
+  </si>
+  <si>
+    <t>parasel</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>wee</t>
+  </si>
+  <si>
     <t>is</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Vr(XY)</t>
-  </si>
-  <si>
-    <t>Kop,W</t>
-  </si>
-  <si>
-    <t>I,II,IV</t>
-  </si>
-  <si>
-    <t>fietst</t>
-  </si>
-  <si>
-    <t>niet</t>
-  </si>
-  <si>
-    <t>meer</t>
-  </si>
-  <si>
-    <t>BBv/B</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>Stam+t</t>
-  </si>
-  <si>
-    <t>III,IV</t>
-  </si>
-  <si>
-    <t>je</t>
-  </si>
-  <si>
-    <t>dan</t>
-  </si>
-  <si>
-    <t>effjes</t>
-  </si>
-  <si>
-    <t>erop</t>
-  </si>
-  <si>
-    <t>zetten</t>
-  </si>
-  <si>
-    <t>Hww i</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>jij</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>maken</t>
-  </si>
-  <si>
-    <t>Inv,VCWOndBB</t>
-  </si>
-  <si>
-    <t>I,III,V</t>
-  </si>
-  <si>
-    <t>daar</t>
-  </si>
-  <si>
-    <t>op</t>
-  </si>
-  <si>
-    <t>Vo/bij</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>OndWBB</t>
-  </si>
-  <si>
-    <t>I,IV</t>
-  </si>
-  <si>
-    <t>daarheen</t>
-  </si>
-  <si>
-    <t>schuiven</t>
-  </si>
-  <si>
-    <t>anders</t>
-  </si>
-  <si>
-    <t>gaan</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>dieren</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>'t</t>
-  </si>
-  <si>
-    <t>hek</t>
-  </si>
-  <si>
-    <t>lopen</t>
-  </si>
-  <si>
-    <t>VzBepZn</t>
-  </si>
-  <si>
-    <t>hetZn</t>
-  </si>
-  <si>
-    <t>III,IV,IV,V</t>
-  </si>
-  <si>
-    <t>MvTT</t>
-  </si>
-  <si>
-    <t>MvZn</t>
-  </si>
-  <si>
-    <t>II,IV</t>
-  </si>
-  <si>
-    <t>Inv,OndWBB</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>der</t>
-  </si>
-  <si>
-    <t>aan</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>IV,VI</t>
-  </si>
-  <si>
-    <t>BBX,W</t>
-  </si>
-  <si>
-    <t>paar</t>
-  </si>
-  <si>
-    <t>Zn</t>
-  </si>
-  <si>
-    <t>deze</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>nergens</t>
-  </si>
-  <si>
-    <t>WVz</t>
-  </si>
-  <si>
-    <t>V,VI</t>
-  </si>
-  <si>
-    <t>OndWBVC</t>
-  </si>
-  <si>
-    <t>I,I,IV</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>effje</t>
-  </si>
-  <si>
-    <t>kant</t>
-  </si>
-  <si>
-    <t>die/dezeZn</t>
-  </si>
-  <si>
-    <t>IV,IV,IV</t>
-  </si>
-  <si>
-    <t>wij</t>
-  </si>
-  <si>
-    <t>II,V</t>
-  </si>
-  <si>
-    <t>Ov5</t>
-  </si>
-  <si>
-    <t>II</t>
+    <t>Vcbijzin</t>
+  </si>
+  <si>
+    <t>Stam</t>
+  </si>
+  <si>
+    <t>Verb Ov,Vr(XY)</t>
+  </si>
+  <si>
+    <t>I,II,IV,VI</t>
+  </si>
+  <si>
+    <t>nee</t>
+  </si>
+  <si>
+    <t>wortjes</t>
+  </si>
+  <si>
+    <t>MvZn,Verkl</t>
+  </si>
+  <si>
+    <t>II,II</t>
   </si>
   <si>
     <t>kijk</t>
   </si>
   <si>
-    <t>hier</t>
-  </si>
-  <si>
-    <t>hebben</t>
-  </si>
-  <si>
-    <t>heel</t>
-  </si>
-  <si>
-    <t>veel</t>
-  </si>
-  <si>
-    <t>IV,V</t>
-  </si>
-  <si>
-    <t>V.U. Divers</t>
-  </si>
-  <si>
-    <t>Inv,OndWBVC</t>
-  </si>
-  <si>
-    <t>I,I,I,III,IV</t>
-  </si>
-  <si>
-    <t>eventjes</t>
-  </si>
-  <si>
-    <t>BX</t>
-  </si>
-  <si>
-    <t>klik</t>
-  </si>
-  <si>
-    <t>wel</t>
-  </si>
-  <si>
-    <t>maar</t>
-  </si>
-  <si>
-    <t>I,III,VI,VI</t>
-  </si>
-  <si>
-    <t>alweer</t>
-  </si>
-  <si>
-    <t>Vr5+</t>
-  </si>
-  <si>
-    <t>I,II,VI</t>
-  </si>
-  <si>
-    <t>trappetje</t>
-  </si>
-  <si>
-    <t>V.U. Nee/ja,Zn</t>
-  </si>
-  <si>
-    <t>I,I</t>
-  </si>
-  <si>
-    <t>parasol</t>
-  </si>
-  <si>
-    <t>weet</t>
-  </si>
-  <si>
-    <t>Vcbijzin</t>
-  </si>
-  <si>
-    <t>Stam</t>
-  </si>
-  <si>
-    <t>Verb Ov,Vr(XY)</t>
-  </si>
-  <si>
-    <t>I,I,II,IV,IV,VI</t>
-  </si>
-  <si>
-    <t>nee</t>
-  </si>
-  <si>
-    <t>alleen</t>
-  </si>
-  <si>
-    <t>worstjes</t>
-  </si>
-  <si>
-    <t>MvZn,Verkl</t>
-  </si>
-  <si>
-    <t>II,II</t>
-  </si>
-  <si>
     <t>zit</t>
   </si>
   <si>
-    <t>worstje</t>
+    <t>wortje</t>
   </si>
   <si>
     <t>in</t>
@@ -550,7 +556,7 @@
     <t>Inv,OndWB</t>
   </si>
   <si>
-    <t>staat</t>
+    <t>taat</t>
   </si>
   <si>
     <t>hierop</t>
@@ -577,13 +583,16 @@
     <t>OndWVC</t>
   </si>
   <si>
-    <t>I,I,III,VI</t>
+    <t>I,III,VI</t>
   </si>
   <si>
     <t>weer</t>
   </si>
   <si>
-    <t>I,III,VI</t>
+    <t>Vobij,er</t>
+  </si>
+  <si>
+    <t>I,III,IV,VI</t>
   </si>
   <si>
     <t>hoop</t>
@@ -949,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P229"/>
+  <dimension ref="A1:P262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1408,12 +1417,8 @@
         <v>22</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1423,9 +1428,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1433,11 +1436,15 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1447,73 +1454,75 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1521,17 +1530,13 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1539,20 +1544,16 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1560,7 +1561,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P23" s="3"/>
     </row>
@@ -1569,26 +1570,28 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P24" s="3"/>
     </row>
@@ -1597,18 +1600,14 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1617,48 +1616,54 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1671,41 +1676,43 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1715,9 +1722,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -1725,12 +1730,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1741,9 +1744,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -1751,11 +1752,15 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1765,52 +1770,44 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="O31" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1821,15 +1818,17 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="O33" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1847,47 +1846,49 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1897,9 +1898,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -1907,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1925,41 +1924,39 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>7</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1978,14 +1975,18 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1995,15 +1996,17 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2021,37 +2024,41 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P42" s="3"/>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2069,39 +2076,33 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2120,14 +2121,16 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2137,23 +2140,21 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="O46" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2163,45 +2164,43 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P48" s="3"/>
+      <c r="F48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2219,45 +2218,41 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>9</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2267,15 +2262,17 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="O51" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2294,17 +2291,19 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="D53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -2314,24 +2313,20 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2341,71 +2336,67 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>9</v>
       </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>10</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2424,16 +2415,16 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2444,24 +2435,20 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2471,25 +2458,21 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2500,20 +2483,22 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2523,79 +2508,75 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
+      <c r="O61" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>11</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="2" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2605,28 +2586,24 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -2634,23 +2611,23 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -2662,16 +2639,16 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2689,47 +2666,39 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>12</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2747,47 +2716,53 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P70" s="3"/>
+      <c r="A70" s="2">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -2795,24 +2770,20 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -2824,76 +2795,74 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
+      <c r="O73" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>13</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -2903,22 +2872,22 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
+      <c r="O75" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -2927,53 +2896,55 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P77" s="3"/>
+      <c r="A77" s="2">
+        <v>12</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -2983,21 +2954,21 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -3007,47 +2978,45 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
+      <c r="O79" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>14</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3066,17 +3035,19 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="D82" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -3086,24 +3057,20 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -3113,45 +3080,49 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>14</v>
-      </c>
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P84" s="3"/>
+      <c r="A84" s="2">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3169,51 +3140,45 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>15</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -3223,24 +3188,22 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
+      <c r="O87" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -3249,28 +3212,26 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="O88" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="O88" s="3"/>
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -3278,24 +3239,20 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="B90" t="s">
-        <v>22</v>
-      </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -3305,84 +3262,76 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="O90" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="O90" s="3"/>
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
+      <c r="A91" s="2">
+        <v>14</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>16</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+      <c r="A92">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -3391,57 +3340,51 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
+      <c r="O93" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E94" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -3449,21 +3392,19 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-      <c r="O95" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="O95" s="3"/>
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>23</v>
@@ -3478,13 +3419,13 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -3506,31 +3447,33 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -3540,7 +3483,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
         <v>19</v>
@@ -3562,16 +3505,18 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F100" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -3582,27 +3527,27 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
         <v>21</v>
       </c>
       <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="D101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -3610,22 +3555,20 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -3635,21 +3578,23 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
-      <c r="O102" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O102" s="3"/>
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -3659,63 +3604,79 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
+      <c r="O103" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>16</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L105" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>18</v>
-      </c>
-      <c r="B105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3734,40 +3695,52 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
+      <c r="H107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
+      <c r="O107" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -3776,16 +3749,16 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3803,47 +3776,39 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>19</v>
-      </c>
-      <c r="B110" s="2" t="s">
+      <c r="A110">
         <v>16</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3861,48 +3826,50 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>19</v>
-      </c>
-      <c r="B112" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P112" s="3"/>
+      <c r="A112" s="2">
+        <v>17</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
         <v>19</v>
-      </c>
-      <c r="B113" t="s">
-        <v>21</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -3911,27 +3878,21 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
-      <c r="O113" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="O113" s="3"/>
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C114" s="3"/>
-      <c r="D114" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
       <c r="F114" s="3" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -3942,21 +3903,25 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="P114" s="3"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -3965,59 +3930,45 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
+      <c r="O115" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>20</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
+      <c r="A116">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -4027,78 +3978,68 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
+      <c r="O117" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
-      <c r="O118" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="O118" s="3"/>
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>20</v>
-      </c>
-      <c r="B119" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="P119" s="3"/>
+      <c r="A119" s="2">
+        <v>18</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -4109,17 +4050,15 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
-      <c r="O120" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="O120" s="3"/>
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121" t="s">
         <v>20</v>
-      </c>
-      <c r="B121" t="s">
-        <v>15</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4137,40 +4076,38 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+      <c r="A122">
+        <v>18</v>
+      </c>
+      <c r="B122" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -4181,15 +4118,17 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
+      <c r="O123" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4207,42 +4146,50 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>21</v>
-      </c>
-      <c r="B125" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="P125" s="3"/>
+      <c r="A125" s="2">
+        <v>19</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C126" s="3"/>
-      <c r="D126" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -4253,23 +4200,25 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
-      <c r="O126" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="O126" s="3"/>
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
+      <c r="G127" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -4277,56 +4226,50 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
+      <c r="O127" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>22</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
+      <c r="A128">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -4337,101 +4280,107 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
+      <c r="O129" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
-      <c r="I130" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
-      <c r="O131" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="O131" s="3"/>
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>22</v>
-      </c>
-      <c r="B132" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="P132" s="3"/>
+      <c r="A132" s="2">
+        <v>20</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4449,61 +4398,69 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>23</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
+      <c r="A134">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
+      <c r="H135" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
+      <c r="O135" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4522,13 +4479,15 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -4539,23 +4498,21 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
-      <c r="O137" s="3"/>
+      <c r="O137" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C138" s="3"/>
-      <c r="D138" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -4565,65 +4522,63 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
-      <c r="O138" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="O138" s="3"/>
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>23</v>
-      </c>
-      <c r="B139" t="s">
-        <v>15</v>
-      </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
+      <c r="A139" s="2">
+        <v>21</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>24</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
+      <c r="A140">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4642,13 +4597,15 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -4659,18 +4616,22 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
-      <c r="O142" s="3"/>
+      <c r="O142" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -4681,20 +4642,20 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
+      <c r="O143" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C144" s="3"/>
-      <c r="D144" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -4705,67 +4666,75 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
-      <c r="O144" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="O144" s="3"/>
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>24</v>
-      </c>
-      <c r="B145" t="s">
-        <v>15</v>
-      </c>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
+      <c r="A145" s="2">
+        <v>22</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>25</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
+      <c r="A146">
+        <v>22</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4773,49 +4742,61 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
+      <c r="I147" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
-      <c r="O147" s="3"/>
+      <c r="O147" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
+      <c r="G148" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
-      <c r="O148" s="3"/>
+      <c r="O148" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E149" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -4826,24 +4807,26 @@
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B150" t="s">
         <v>22</v>
       </c>
       <c r="C150" s="3"/>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -4852,13 +4835,13 @@
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
@@ -4880,33 +4863,25 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -4916,7 +4891,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B153" t="s">
         <v>19</v>
@@ -4938,7 +4913,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
@@ -4947,9 +4922,7 @@
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -4957,31 +4930,21 @@
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
-      <c r="O154" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="O154" s="3"/>
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B155" t="s">
         <v>21</v>
       </c>
       <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -4989,26 +4952,20 @@
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
-      <c r="O155" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="O155" s="3"/>
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B156" t="s">
         <v>22</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -5017,21 +4974,23 @@
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
-      <c r="O156" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="O156" s="3"/>
       <c r="P156" s="3"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="D157" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -5041,71 +5000,65 @@
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
-      <c r="O157" s="3"/>
+      <c r="O157" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>27</v>
-      </c>
-      <c r="B158" s="2" t="s">
+      <c r="A158">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>24</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>27</v>
-      </c>
-      <c r="B159" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-      <c r="M159" s="3"/>
-      <c r="N159" s="3"/>
-      <c r="O159" s="3"/>
-      <c r="P159" s="3"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5124,17 +5077,15 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -5143,25 +5094,19 @@
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
-      <c r="O161" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="O161" s="3"/>
       <c r="P161" s="3"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C162" s="3"/>
-      <c r="D162" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -5171,20 +5116,20 @@
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
-      <c r="O162" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="O162" s="3"/>
       <c r="P162" s="3"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -5195,65 +5140,67 @@
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
-      <c r="O163" s="3"/>
+      <c r="O163" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P163" s="3"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>28</v>
-      </c>
-      <c r="B164" s="2" t="s">
+      <c r="A164">
+        <v>24</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>25</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F164" s="2" t="s">
+      <c r="C165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>28</v>
-      </c>
-      <c r="B165" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5272,16 +5219,14 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -5291,21 +5236,19 @@
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
-      <c r="O167" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="O167" s="3"/>
       <c r="P167" s="3"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -5318,16 +5261,16 @@
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" s="3" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="P168" s="3"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5345,41 +5288,37 @@
       <c r="P169" s="3"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>29</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
+      <c r="A170">
+        <v>25</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P170" s="3"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -5397,40 +5336,52 @@
       <c r="P171" s="3"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>29</v>
-      </c>
-      <c r="B172" t="s">
-        <v>20</v>
-      </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3"/>
-      <c r="N172" s="3"/>
-      <c r="O172" s="3"/>
-      <c r="P172" s="3"/>
+      <c r="A172" s="2">
+        <v>26</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B173" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -5439,27 +5390,23 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
-      <c r="O173" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="O173" s="3"/>
       <c r="P173" s="3"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
       <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
+      <c r="G174" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
@@ -5468,22 +5415,30 @@
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" s="3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="P174" s="3"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+      <c r="D175" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -5491,48 +5446,48 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
-      <c r="O175" s="3"/>
+      <c r="O175" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="P175" s="3"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>30</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
+      <c r="A176">
+        <v>26</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
+      <c r="E177" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -5541,20 +5496,20 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
-      <c r="O177" s="3"/>
+      <c r="O177" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="P177" s="3"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C178" s="3"/>
-      <c r="D178" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -5565,39 +5520,49 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
-      <c r="O178" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="O178" s="3"/>
       <c r="P178" s="3"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>30</v>
-      </c>
-      <c r="B179" t="s">
-        <v>21</v>
-      </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
-      <c r="L179" s="3"/>
-      <c r="M179" s="3"/>
-      <c r="N179" s="3"/>
-      <c r="O179" s="3"/>
-      <c r="P179" s="3"/>
+      <c r="A179" s="2">
+        <v>27</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B180" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -5616,10 +5581,10 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -5637,55 +5602,43 @@
       <c r="P181" s="3"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>31</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
+      <c r="A182">
+        <v>27</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P182" s="3"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
-      <c r="G183" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -5693,20 +5646,20 @@
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
-      <c r="O183" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="O183" s="3"/>
       <c r="P183" s="3"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
+      <c r="D184" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -5717,28 +5670,26 @@
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
+      <c r="O184" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="P184" s="3"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C185" s="3"/>
-      <c r="D185" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
-      <c r="H185" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
@@ -5746,102 +5697,88 @@
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
       <c r="O185" s="3" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="P185" s="3"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C186" s="3"/>
-      <c r="D186" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
       <c r="F186" s="3"/>
-      <c r="G186" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="G186" s="3"/>
       <c r="H186" s="3"/>
-      <c r="I186" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
-      <c r="O186" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="O186" s="3"/>
       <c r="P186" s="3"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>31</v>
-      </c>
-      <c r="B187" t="s">
-        <v>15</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
-      <c r="P187" s="3"/>
+      <c r="A187" s="2">
+        <v>28</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
-        <v>32</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
+      <c r="A188">
+        <v>28</v>
+      </c>
+      <c r="B188" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -5860,15 +5797,15 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -5880,24 +5817,24 @@
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
       <c r="O190" s="3" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="P190" s="3"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
+      <c r="D191" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
-      <c r="G191" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -5906,21 +5843,19 @@
       <c r="M191" s="3"/>
       <c r="N191" s="3"/>
       <c r="O191" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="P191" s="3"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C192" s="3"/>
-      <c r="D192" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -5931,75 +5866,67 @@
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
-      <c r="O192" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="O192" s="3"/>
       <c r="P192" s="3"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>32</v>
-      </c>
-      <c r="B193" t="s">
-        <v>15</v>
-      </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
+      <c r="A193" s="2">
+        <v>29</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="2">
-        <v>33</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
+      <c r="A194">
+        <v>29</v>
+      </c>
+      <c r="B194" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -6018,20 +5945,18 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
@@ -6040,55 +5965,45 @@
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
       <c r="O196" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="P196" s="3"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B197" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
-      <c r="F197" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="F197" s="3"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
-      <c r="O197" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="O197" s="3"/>
       <c r="P197" s="3"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B198" t="s">
         <v>22</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -6098,20 +6013,22 @@
       <c r="M198" s="3"/>
       <c r="N198" s="3"/>
       <c r="O198" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="P198" s="3"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
+      <c r="E199" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -6121,67 +6038,67 @@
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
       <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
+      <c r="O199" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="P199" s="3"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
-        <v>34</v>
-      </c>
-      <c r="B200" s="2" t="s">
+      <c r="A200">
+        <v>29</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>30</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>34</v>
-      </c>
-      <c r="B201" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -6200,19 +6117,17 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B203" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D203" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
@@ -6222,24 +6137,20 @@
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
       <c r="O203" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P203" s="3"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C204" s="3"/>
-      <c r="D204" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -6249,17 +6160,15 @@
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
-      <c r="O204" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="O204" s="3"/>
       <c r="P204" s="3"/>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -6277,71 +6186,77 @@
       <c r="P205" s="3"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
-        <v>35</v>
-      </c>
-      <c r="B206" s="2" t="s">
+      <c r="A206">
+        <v>30</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>31</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G206" s="2" t="s">
+      <c r="C207" s="2"/>
+      <c r="D207" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J207" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>35</v>
-      </c>
-      <c r="B207" t="s">
-        <v>19</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3"/>
-      <c r="P207" s="3"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C208" s="3"/>
-      <c r="D208" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
+      <c r="G208" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
@@ -6350,16 +6265,16 @@
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
       <c r="O208" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="P208" s="3"/>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B209" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -6378,32 +6293,40 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+      <c r="D210" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+      <c r="H210" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
       <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
+      <c r="O210" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="P210" s="3"/>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -6421,74 +6344,72 @@
       <c r="P211" s="3"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>36</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
+      <c r="A212">
+        <v>31</v>
+      </c>
+      <c r="B212" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P212" s="3"/>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
+      <c r="G213" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
+      <c r="I213" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
       <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
+      <c r="O213" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="P213" s="3"/>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B214" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
-      <c r="F214" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -6497,83 +6418,75 @@
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
       <c r="N214" s="3"/>
-      <c r="O214" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="O214" s="3"/>
       <c r="P214" s="3"/>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>36</v>
-      </c>
-      <c r="B215" t="s">
-        <v>21</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P215" s="3"/>
+      <c r="A215" s="2">
+        <v>32</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B216" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C216" s="3"/>
-      <c r="D216" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D216" s="3"/>
       <c r="E216" s="3"/>
-      <c r="F216" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
       <c r="N216" s="3"/>
-      <c r="O216" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="O216" s="3"/>
       <c r="P216" s="3"/>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
+      <c r="E217" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -6583,52 +6496,48 @@
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
+      <c r="O217" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="P217" s="3"/>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A218" s="2">
-        <v>37</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
+      <c r="A218">
+        <v>32</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P218" s="3"/>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B219" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
+      <c r="D219" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -6639,22 +6548,22 @@
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
       <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
+      <c r="O219" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P219" s="3"/>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B220" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
-      <c r="F220" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -6663,55 +6572,55 @@
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
       <c r="N220" s="3"/>
-      <c r="O220" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="O220" s="3"/>
       <c r="P220" s="3"/>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>37</v>
-      </c>
-      <c r="B221" t="s">
-        <v>21</v>
-      </c>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="3" t="s">
+      <c r="A221" s="2">
         <v>33</v>
       </c>
-      <c r="F221" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="P221" s="3"/>
+      <c r="B221" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B222" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C222" s="3"/>
-      <c r="D222" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -6721,23 +6630,25 @@
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
       <c r="N222" s="3"/>
-      <c r="O222" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="O222" s="3"/>
       <c r="P222" s="3"/>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
+      <c r="E223" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
+      <c r="G223" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
@@ -6745,46 +6656,50 @@
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
       <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
+      <c r="O223" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="P223" s="3"/>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>38</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
+      <c r="A224">
+        <v>33</v>
+      </c>
+      <c r="B224" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P224" s="3"/>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B225" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
@@ -6795,20 +6710,26 @@
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
       <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
+      <c r="O225" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P225" s="3"/>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
+      <c r="E226" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -6817,23 +6738,21 @@
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
       <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
+      <c r="O226" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="P226" s="3"/>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C227" s="3"/>
-      <c r="D227" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -6843,43 +6762,45 @@
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
       <c r="N227" s="3"/>
-      <c r="O227" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="O227" s="3"/>
       <c r="P227" s="3"/>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>38</v>
-      </c>
-      <c r="B228" t="s">
-        <v>22</v>
-      </c>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P228" s="3"/>
+      <c r="A228" s="2">
+        <v>34</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -6896,6 +6817,836 @@
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
     </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>34</v>
+      </c>
+      <c r="B230" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>34</v>
+      </c>
+      <c r="B231" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P231" s="3"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>34</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>34</v>
+      </c>
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P233" s="3"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>34</v>
+      </c>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P234" s="3"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>34</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>35</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>35</v>
+      </c>
+      <c r="B237" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>35</v>
+      </c>
+      <c r="B238" t="s">
+        <v>20</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P238" s="3"/>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>35</v>
+      </c>
+      <c r="B239" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>35</v>
+      </c>
+      <c r="B240" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>35</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>36</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>36</v>
+      </c>
+      <c r="B243" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>36</v>
+      </c>
+      <c r="B244" t="s">
+        <v>20</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P244" s="3"/>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>36</v>
+      </c>
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P245" s="3"/>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>36</v>
+      </c>
+      <c r="B246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P246" s="3"/>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>36</v>
+      </c>
+      <c r="B247" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P247" s="3"/>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>36</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>37</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>37</v>
+      </c>
+      <c r="B250" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>37</v>
+      </c>
+      <c r="B251" t="s">
+        <v>20</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>37</v>
+      </c>
+      <c r="B252" t="s">
+        <v>21</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P252" s="3"/>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>37</v>
+      </c>
+      <c r="B253" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>37</v>
+      </c>
+      <c r="B254" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3"/>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P254" s="3"/>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>37</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3"/>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>38</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+      <c r="M256" s="2"/>
+      <c r="N256" s="2"/>
+      <c r="O256" s="2"/>
+      <c r="P256" s="2"/>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>38</v>
+      </c>
+      <c r="B257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>38</v>
+      </c>
+      <c r="B258" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>38</v>
+      </c>
+      <c r="B259" t="s">
+        <v>21</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P259" s="3"/>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>38</v>
+      </c>
+      <c r="B260" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3"/>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>38</v>
+      </c>
+      <c r="B261" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P261" s="3"/>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>38</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
